--- a/medicine/Psychotrope/Bacchus_(cépage)/Bacchus_(cépage).xlsx
+++ b/medicine/Psychotrope/Bacchus_(cépage)/Bacchus_(cépage).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bacchus_(c%C3%A9page)</t>
+          <t>Bacchus_(cépage)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le bacchus est un cépage de raisins blancs.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bacchus_(c%C3%A9page)</t>
+          <t>Bacchus_(cépage)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,11 +524,13 @@
           <t>Origine et répartition géographique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le bacchus est une obtention de l’année 1933 de Peter Morio et Bernhard Husfeld en croisant (sylvaner x riesling) x müller-thurgau dans les installations du Institut für Rebenzüchtung Geilweilerhof à Siebeldingen (Palatinat) en Allemagne. Le cépage fait partie de la liste des classements de cépages pour la production de vin suivant l’Article 20 du règlement (CE) no 1227/200.
 La superficie plantée en Allemagne est de 2 756 hectares (2004).
-En Belgique, il est autorisé pour les AOCs flamandes Hageland[1] et Haspengouw[2].
+En Belgique, il est autorisé pour les AOCs flamandes Hageland et Haspengouw.
 Le vin blanc est frais et fruité bien qu’il lui manque de l'acidité.
 </t>
         </is>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Bacchus_(c%C3%A9page)</t>
+          <t>Bacchus_(cépage)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le bacchus est connu sous les noms de dyonysos et Geilweilerhof 33-29-133.
 </t>
